--- a/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
+++ b/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7B327-B7E5-4568-9443-065D4EF8D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1101,7 +1100,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1143,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1207,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1267,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1333,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1396,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1494,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1553,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1618,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1661,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1736,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1922,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1988,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2046,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2112,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2168,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2243,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2286,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2352,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2408,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2506,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2569,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,25 +2635,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2666,13 +2665,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2681,14 +2680,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2992,7 +2991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3002,7 +3001,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3010,34 +3009,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3101,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3110,7 +3109,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3123,7 +3122,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3140,7 +3139,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3184,7 +3183,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.25</v>
+        <v>42.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3194,12 +3193,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.25</v>
+        <v>51.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3221,7 +3220,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3341,7 +3340,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>45</v>
       </c>
@@ -3363,7 +3362,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3383,7 +3382,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3403,7 +3402,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3443,7 +3442,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3543,7 +3542,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3563,7 +3562,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -3695,7 +3694,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44256</v>
       </c>
@@ -3715,7 +3714,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44287</v>
       </c>
@@ -3735,7 +3734,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44317</v>
       </c>
@@ -3755,7 +3754,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44348</v>
       </c>
@@ -3775,7 +3774,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -3819,7 +3818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44409</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44440</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44470</v>
       </c>
@@ -3879,7 +3878,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44501</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44531</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -3947,7 +3946,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -3967,7 +3966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -3987,7 +3986,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>43</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44562</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44593</v>
       </c>
@@ -4053,7 +4052,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44621</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44652</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44682</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44713</v>
       </c>
@@ -4133,7 +4132,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44743</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>57</v>
@@ -4181,7 +4180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -4201,7 +4200,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44774</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44835</v>
       </c>
@@ -4263,7 +4262,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -4283,7 +4282,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44896</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>61</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -4347,7 +4346,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44958</v>
       </c>
@@ -4367,7 +4366,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44986</v>
       </c>
@@ -4387,47 +4386,53 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
@@ -4436,12 +4441,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="49">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
@@ -4459,7 +4468,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45139</v>
       </c>
@@ -4477,7 +4486,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45170</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45200</v>
       </c>
@@ -4513,7 +4522,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45231</v>
       </c>
@@ -4531,7 +4540,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45261</v>
       </c>
@@ -4549,7 +4558,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45292</v>
       </c>
@@ -4567,7 +4576,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4583,7 +4592,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4599,7 +4608,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4615,7 +4624,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4631,7 +4640,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4647,7 +4656,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4663,7 +4672,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4679,7 +4688,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4695,7 +4704,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4711,7 +4720,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4727,7 +4736,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4743,7 +4752,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4759,7 +4768,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4775,7 +4784,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4791,7 +4800,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4807,7 +4816,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4823,7 +4832,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4839,7 +4848,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4855,7 +4864,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4871,7 +4880,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4887,7 +4896,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4903,7 +4912,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4919,7 +4928,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4935,7 +4944,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4951,7 +4960,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4967,7 +4976,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4983,7 +4992,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4999,7 +5008,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5015,7 +5024,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5031,7 +5040,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5047,7 +5056,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5063,7 +5072,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5079,7 +5088,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5095,7 +5104,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5111,7 +5120,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5127,7 +5136,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5143,7 +5152,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5159,7 +5168,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5175,7 +5184,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5191,7 +5200,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5207,7 +5216,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5223,7 +5232,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5239,7 +5248,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5255,7 +5264,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5271,7 +5280,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5287,7 +5296,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5303,7 +5312,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5319,7 +5328,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5335,7 +5344,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5351,7 +5360,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5367,7 +5376,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5383,7 +5392,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5399,7 +5408,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5415,7 +5424,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5431,7 +5440,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5447,7 +5456,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5463,7 +5472,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5494,10 +5503,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5520,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5528,21 +5537,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5555,7 +5564,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5604,17 +5613,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5635,7 +5644,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5714,7 +5723,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5792,7 +5801,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5818,7 +5827,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5844,7 +5853,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5884,7 +5893,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5904,7 +5913,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5925,7 +5934,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5988,7 +5997,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6030,7 +6039,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6072,7 +6081,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6135,7 +6144,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6156,7 +6165,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6219,7 +6228,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6240,7 +6249,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6282,7 +6291,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6324,7 +6333,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6333,7 +6342,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6342,7 +6351,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6351,7 +6360,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6360,7 +6369,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6369,7 +6378,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6378,7 +6387,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6387,7 +6396,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6396,7 +6405,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6405,7 +6414,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6414,7 +6423,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6423,7 +6432,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6432,7 +6441,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6441,7 +6450,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6450,7 +6459,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6459,7 +6468,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6468,7 +6477,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6477,7 +6486,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6486,7 +6495,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6495,7 +6504,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6504,7 +6513,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6513,7 +6522,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6522,7 +6531,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6531,7 +6540,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6540,7 +6549,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6549,7 +6558,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6558,7 +6567,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6567,7 +6576,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6576,7 +6585,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6585,7 +6594,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
+++ b/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B21804-7841-4F8B-B992-A16F2415AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1100,7 +1101,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1144,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1208,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1268,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1334,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1397,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1495,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1554,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1619,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1662,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1737,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1923,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1989,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2047,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2113,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2169,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2244,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2287,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2353,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2409,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2507,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2570,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2619,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2635,25 +2636,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2665,13 +2666,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2680,14 +2681,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2991,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3001,7 +3002,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3009,34 +3010,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3058,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3109,7 +3110,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3122,7 +3123,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3139,7 +3140,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3183,7 +3184,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.75</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3193,12 +3194,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.75</v>
+        <v>53</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3220,7 +3221,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3260,7 +3261,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3280,7 +3281,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3300,7 +3301,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3320,7 +3321,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>45</v>
       </c>
@@ -3362,7 +3363,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3402,7 +3403,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3422,7 +3423,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3442,7 +3443,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3462,7 +3463,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3482,7 +3483,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3502,7 +3503,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3522,7 +3523,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3542,7 +3543,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3562,7 +3563,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3582,7 +3583,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3606,7 +3607,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3629,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3648,7 +3649,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -3694,7 +3695,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44256</v>
       </c>
@@ -3714,7 +3715,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44287</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44317</v>
       </c>
@@ -3754,7 +3755,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44348</v>
       </c>
@@ -3774,7 +3775,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -3818,7 +3819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44409</v>
       </c>
@@ -3838,7 +3839,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44440</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44470</v>
       </c>
@@ -3878,7 +3879,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44501</v>
       </c>
@@ -3898,7 +3899,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44531</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -3946,7 +3947,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -3966,7 +3967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -3986,7 +3987,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>43</v>
       </c>
@@ -4008,7 +4009,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44562</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44593</v>
       </c>
@@ -4052,7 +4053,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44621</v>
       </c>
@@ -4072,7 +4073,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44652</v>
       </c>
@@ -4092,7 +4093,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44682</v>
       </c>
@@ -4112,7 +4113,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44713</v>
       </c>
@@ -4132,7 +4133,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44743</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>57</v>
@@ -4180,7 +4181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -4200,7 +4201,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44774</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -4242,7 +4243,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44835</v>
       </c>
@@ -4262,7 +4263,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -4282,7 +4283,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44896</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>61</v>
       </c>
@@ -4326,7 +4327,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -4346,7 +4347,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44958</v>
       </c>
@@ -4366,7 +4367,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44986</v>
       </c>
@@ -4386,7 +4387,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
@@ -4406,7 +4407,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
@@ -4426,20 +4427,22 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39">
         <v>1</v>
@@ -4450,11 +4453,13 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
@@ -4466,9 +4471,11 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="49">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45139</v>
       </c>
@@ -4486,7 +4493,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45170</v>
       </c>
@@ -4504,7 +4511,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45200</v>
       </c>
@@ -4522,7 +4529,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45231</v>
       </c>
@@ -4540,7 +4547,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45261</v>
       </c>
@@ -4558,7 +4565,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45292</v>
       </c>
@@ -4576,7 +4583,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4592,7 +4599,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4608,7 +4615,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4624,7 +4631,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4640,7 +4647,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4656,7 +4663,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4672,7 +4679,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4688,7 +4695,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4704,7 +4711,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4720,7 +4727,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4736,7 +4743,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4752,7 +4759,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4768,7 +4775,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4784,7 +4791,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4800,7 +4807,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4816,7 +4823,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4832,7 +4839,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4848,7 +4855,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4864,7 +4871,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4880,7 +4887,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4896,7 +4903,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4912,7 +4919,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4928,7 +4935,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4944,7 +4951,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4960,7 +4967,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4976,7 +4983,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4992,7 +4999,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5008,7 +5015,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5024,7 +5031,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5040,7 +5047,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5056,7 +5063,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5072,7 +5079,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5088,7 +5095,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5104,7 +5111,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5120,7 +5127,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5136,7 +5143,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5152,7 +5159,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5168,7 +5175,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5184,7 +5191,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5200,7 +5207,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5216,7 +5223,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5232,7 +5239,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5248,7 +5255,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5264,7 +5271,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5280,7 +5287,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5296,7 +5303,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5312,7 +5319,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5328,7 +5335,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5344,7 +5351,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5360,7 +5367,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5376,7 +5383,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5392,7 +5399,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5408,7 +5415,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5424,7 +5431,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5440,7 +5447,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5456,7 +5463,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5472,7 +5479,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5503,10 +5510,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5529,7 +5536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5537,21 +5544,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5564,7 +5571,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5613,17 +5620,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5644,7 +5651,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5873,7 +5880,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5934,7 +5941,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5955,7 +5962,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5976,7 +5983,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6039,7 +6046,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6081,7 +6088,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6144,7 +6151,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6165,7 +6172,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6186,7 +6193,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6207,7 +6214,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6270,7 +6277,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6333,7 +6340,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6342,7 +6349,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6351,7 +6358,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6360,7 +6367,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6369,7 +6376,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6378,7 +6385,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6387,7 +6394,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6396,7 +6403,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6405,7 +6412,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6414,7 +6421,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6423,7 +6430,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6432,7 +6439,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6441,7 +6448,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6450,7 +6457,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6459,7 +6466,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6468,7 +6475,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6477,7 +6484,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6486,7 +6493,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6495,7 +6502,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6504,7 +6511,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6513,7 +6520,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6522,7 +6529,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6531,7 +6538,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6540,7 +6547,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6549,7 +6556,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6558,7 +6565,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6567,7 +6574,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6576,7 +6583,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6585,7 +6592,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6594,7 +6601,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
+++ b/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B21804-7841-4F8B-B992-A16F2415AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -236,12 +235,15 @@
   </si>
   <si>
     <t>DAYCARE WORKER I</t>
+  </si>
+  <si>
+    <t>7/25,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1101,7 +1103,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1146,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1270,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1336,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1399,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1497,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1556,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1621,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1664,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1739,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1925,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1991,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2049,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2115,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2171,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2246,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2289,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2355,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2411,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2509,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2572,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2621,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2636,25 +2638,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2666,13 +2668,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2681,14 +2683,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2992,7 +2994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3002,7 +3004,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3010,34 +3012,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68:C69"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3060,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +3082,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3110,7 +3112,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3123,7 +3125,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3140,7 +3142,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3184,7 +3186,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44</v>
+        <v>45.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3194,12 +3196,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53</v>
+        <v>52.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3241,7 +3243,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3261,7 +3263,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3321,7 +3323,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>45</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3383,7 +3385,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3403,7 +3405,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3423,7 +3425,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3443,7 +3445,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3483,7 +3485,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3503,7 +3505,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3523,7 +3525,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3543,7 +3545,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3607,7 +3609,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3649,7 +3651,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -3695,7 +3697,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44256</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44287</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44317</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44348</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -3819,7 +3821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44409</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44440</v>
       </c>
@@ -3859,7 +3861,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44470</v>
       </c>
@@ -3879,7 +3881,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44501</v>
       </c>
@@ -3899,7 +3901,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44531</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -3947,7 +3949,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -3967,7 +3969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -3987,7 +3989,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>43</v>
       </c>
@@ -4009,7 +4011,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44562</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44593</v>
       </c>
@@ -4053,7 +4055,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44621</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44652</v>
       </c>
@@ -4093,7 +4095,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44682</v>
       </c>
@@ -4113,7 +4115,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44713</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44743</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>57</v>
@@ -4181,7 +4183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -4201,7 +4203,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44774</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -4243,7 +4245,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44835</v>
       </c>
@@ -4263,7 +4265,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -4283,7 +4285,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44896</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>61</v>
       </c>
@@ -4327,7 +4329,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -4347,7 +4349,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44958</v>
       </c>
@@ -4367,7 +4369,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44986</v>
       </c>
@@ -4387,7 +4389,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
@@ -4407,7 +4409,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
@@ -4427,7 +4429,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
@@ -4453,20 +4455,22 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4475,11 +4479,11 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B71" s="20"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
@@ -4488,16 +4492,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="39">
+        <v>2</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
@@ -4509,11 +4519,13 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="49">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4529,9 +4541,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4547,9 +4559,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4565,9 +4577,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4583,8 +4595,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>45292</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4599,7 +4613,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4615,7 +4629,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4631,7 +4645,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4647,7 +4661,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4663,7 +4677,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4679,7 +4693,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4695,7 +4709,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4711,7 +4725,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4727,7 +4741,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4743,7 +4757,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4759,7 +4773,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4775,7 +4789,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4791,7 +4805,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4807,7 +4821,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4823,7 +4837,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4839,7 +4853,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4855,7 +4869,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4871,7 +4885,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4887,7 +4901,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4903,7 +4917,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4919,7 +4933,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4935,7 +4949,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4951,7 +4965,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4967,7 +4981,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4983,7 +4997,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4999,7 +5013,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5015,7 +5029,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5031,7 +5045,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5047,7 +5061,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5063,7 +5077,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5079,7 +5093,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5095,7 +5109,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5111,7 +5125,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5127,7 +5141,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5143,7 +5157,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5159,7 +5173,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5175,7 +5189,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5191,7 +5205,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5207,7 +5221,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5223,7 +5237,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5239,7 +5253,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5255,7 +5269,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5271,7 +5285,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5287,7 +5301,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5303,7 +5317,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5319,7 +5333,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5335,7 +5349,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5351,7 +5365,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5367,7 +5381,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5383,7 +5397,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5399,7 +5413,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5415,7 +5429,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5431,7 +5445,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5447,7 +5461,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5463,7 +5477,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5479,21 +5493,37 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5510,10 +5540,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5536,7 +5566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5544,21 +5574,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5571,7 +5601,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5600,7 +5630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5620,17 +5650,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5651,7 +5681,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5678,7 +5708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5704,7 +5734,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5730,7 +5760,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5756,7 +5786,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5782,7 +5812,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5808,7 +5838,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5834,7 +5864,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5860,7 +5890,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5880,7 +5910,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5900,7 +5930,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5920,7 +5950,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5941,7 +5971,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5962,7 +5992,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5983,7 +6013,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6004,7 +6034,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6025,7 +6055,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6046,7 +6076,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6067,7 +6097,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6088,7 +6118,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6109,7 +6139,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6130,7 +6160,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6151,7 +6181,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6172,7 +6202,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6193,7 +6223,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6214,7 +6244,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6235,7 +6265,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6256,7 +6286,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6277,7 +6307,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6298,7 +6328,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6319,7 +6349,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6340,7 +6370,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6349,7 +6379,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6358,7 +6388,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6367,7 +6397,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6376,7 +6406,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6385,7 +6415,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6394,7 +6424,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6403,7 +6433,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6412,7 +6442,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6421,7 +6451,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6430,7 +6460,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6439,7 +6469,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6448,7 +6478,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6457,7 +6487,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6466,7 +6496,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6475,7 +6505,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6484,7 +6514,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6493,7 +6523,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6502,7 +6532,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6511,7 +6541,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6520,7 +6550,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6529,7 +6559,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6538,7 +6568,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6547,7 +6577,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6556,7 +6586,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6565,7 +6595,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6574,7 +6604,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6583,7 +6613,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6592,7 +6622,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6601,7 +6631,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
+++ b/REGULAR/OJT/PELIMBERGO, MICHELLE A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E272C98-1F3F-41DB-B9CF-47A92CA02AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,12 +242,15 @@
   </si>
   <si>
     <t>12/14,15,18,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1106,7 +1110,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1153,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1217,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1277,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1343,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1406,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1504,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1563,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1628,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1671,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1746,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1932,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1998,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2056,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2122,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2178,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2253,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2296,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2362,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2418,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2516,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2579,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2628,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2641,25 +2645,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2671,13 +2675,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2686,14 +2690,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2997,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3007,7 +3011,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3015,34 +3019,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3067,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3085,7 +3089,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3111,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3115,7 +3119,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3128,7 +3132,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3145,7 +3149,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3189,7 +3193,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.25</v>
+        <v>47.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3199,12 +3203,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.25</v>
+        <v>58.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3246,7 +3250,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3326,7 +3330,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>45</v>
       </c>
@@ -3368,7 +3372,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3408,7 +3412,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3428,7 +3432,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3448,7 +3452,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3508,7 +3512,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3528,7 +3532,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3548,7 +3552,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3588,7 +3592,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3612,7 +3616,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -3700,7 +3704,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44256</v>
       </c>
@@ -3720,7 +3724,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44287</v>
       </c>
@@ -3740,7 +3744,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44317</v>
       </c>
@@ -3760,7 +3764,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44348</v>
       </c>
@@ -3780,7 +3784,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -3824,7 +3828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44409</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44440</v>
       </c>
@@ -3864,7 +3868,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44470</v>
       </c>
@@ -3884,7 +3888,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44501</v>
       </c>
@@ -3904,7 +3908,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44531</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -3952,7 +3956,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -3972,7 +3976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -3992,7 +3996,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>43</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44562</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44593</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44621</v>
       </c>
@@ -4078,7 +4082,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44652</v>
       </c>
@@ -4098,7 +4102,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44682</v>
       </c>
@@ -4118,7 +4122,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44713</v>
       </c>
@@ -4138,7 +4142,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44743</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>57</v>
@@ -4186,7 +4190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -4206,7 +4210,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44774</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -4248,7 +4252,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44835</v>
       </c>
@@ -4268,7 +4272,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44896</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>61</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44958</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44986</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
@@ -4432,7 +4436,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -4504,7 +4508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45139</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45170</v>
       </c>
@@ -4548,7 +4552,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45200</v>
       </c>
@@ -4568,7 +4572,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45231</v>
       </c>
@@ -4588,22 +4592,24 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45261</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
         <v>5</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4612,9 +4618,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>45292</v>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4630,23 +4636,33 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="49">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4662,7 +4678,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4678,7 +4694,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4694,7 +4710,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4710,7 +4726,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4726,7 +4742,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4742,7 +4758,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4758,7 +4774,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4774,7 +4790,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4790,7 +4806,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4806,7 +4822,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4822,7 +4838,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4838,7 +4854,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4854,7 +4870,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4870,7 +4886,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4886,7 +4902,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4902,7 +4918,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4918,7 +4934,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4934,7 +4950,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4950,7 +4966,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4966,7 +4982,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4982,7 +4998,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4998,7 +5014,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5014,7 +5030,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5030,7 +5046,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5046,7 +5062,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5062,7 +5078,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5078,7 +5094,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5094,7 +5110,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5110,7 +5126,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5126,7 +5142,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5142,7 +5158,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5158,7 +5174,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5174,7 +5190,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5190,7 +5206,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5206,7 +5222,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5222,7 +5238,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5238,7 +5254,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5254,7 +5270,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5270,7 +5286,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5286,7 +5302,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5302,7 +5318,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5318,7 +5334,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5334,7 +5350,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5350,7 +5366,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5366,7 +5382,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5382,7 +5398,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5398,7 +5414,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5414,7 +5430,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5430,7 +5446,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5446,7 +5462,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5462,7 +5478,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5478,7 +5494,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5494,7 +5510,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5510,7 +5526,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5526,21 +5542,37 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5557,10 +5589,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5583,7 +5615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5591,21 +5623,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5618,7 +5650,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5667,17 +5699,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5698,7 +5730,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5725,7 +5757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5751,7 +5783,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5777,7 +5809,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5829,7 +5861,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5855,7 +5887,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5881,7 +5913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5907,7 +5939,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5927,7 +5959,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5947,7 +5979,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5967,7 +5999,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5988,7 +6020,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6009,7 +6041,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6030,7 +6062,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6051,7 +6083,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6072,7 +6104,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6093,7 +6125,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6114,7 +6146,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6135,7 +6167,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6156,7 +6188,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6177,7 +6209,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6198,7 +6230,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6219,7 +6251,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6240,7 +6272,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6261,7 +6293,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6282,7 +6314,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6303,7 +6335,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6324,7 +6356,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6345,7 +6377,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6366,7 +6398,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6387,7 +6419,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6396,7 +6428,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6405,7 +6437,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6414,7 +6446,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6423,7 +6455,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6432,7 +6464,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6441,7 +6473,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6450,7 +6482,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6459,7 +6491,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6468,7 +6500,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6477,7 +6509,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6486,7 +6518,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6495,7 +6527,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6504,7 +6536,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6513,7 +6545,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6522,7 +6554,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6531,7 +6563,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6540,7 +6572,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6549,7 +6581,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6558,7 +6590,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6567,7 +6599,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6576,7 +6608,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6585,7 +6617,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6594,7 +6626,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6603,7 +6635,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6612,7 +6644,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6621,7 +6653,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6630,7 +6662,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6639,7 +6671,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6648,7 +6680,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
